--- a/entwicklung-sicherer-software-systeme/exercise-1/tags.xlsx
+++ b/entwicklung-sicherer-software-systeme/exercise-1/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Element</t>
   </si>
@@ -37,16 +37,43 @@
     <t>javascript</t>
   </si>
   <si>
+    <t>jboss</t>
+  </si>
+  <si>
+    <t>keycloak</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
     <t>oauth</t>
   </si>
   <si>
     <t>webrtc</t>
   </si>
   <si>
-    <t>Web Application</t>
+    <t>Auth Server</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Google Meet Client</t>
+  </si>
+  <si>
+    <t>Google Meet Server</t>
+  </si>
+  <si>
+    <t>Web Interface</t>
+  </si>
+  <si>
+    <t>User Authentication Access</t>
+  </si>
+  <si>
+    <t>Load Balancer</t>
+  </si>
+  <si>
+    <t>Google Meet Traffic</t>
   </si>
   <si>
     <t>User Account Information</t>
@@ -411,7 +438,7 @@
   </sheetViews>
   <cols>
     <col customWidth="true" max="1" min="1" width="60"/>
-    <col customWidth="true" max="9" min="2" width="35"/>
+    <col customWidth="true" max="12" min="2" width="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,46 +469,63 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -490,30 +534,30 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -523,6 +567,115 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/entwicklung-sicherer-software-systeme/exercise-1/tags.xlsx
+++ b/entwicklung-sicherer-software-systeme/exercise-1/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -58,10 +58,13 @@
     <t>X</t>
   </si>
   <si>
+    <t>Google Meet Server</t>
+  </si>
+  <si>
     <t>Google Meet Client</t>
   </si>
   <si>
-    <t>Google Meet Server</t>
+    <t>Web Server</t>
   </si>
   <si>
     <t>Web Interface</t>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t>Video Meeting Data</t>
+  </si>
+  <si>
+    <t>Google Cloud</t>
   </si>
   <si>
     <t>Public Internet</t>
@@ -505,18 +511,12 @@
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -527,12 +527,18 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -557,7 +563,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -573,7 +579,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -589,7 +595,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -605,27 +611,23 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -637,33 +639,31 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="L10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -675,7 +675,61 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
